--- a/_bookdown_files/data/Experiments_aquifer_properties/tracer_manual_calibration.xlsx
+++ b/_bookdown_files/data/Experiments_aquifer_properties/tracer_manual_calibration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bea/polybox/UWILab/GWLab/field_course_2020/data_handouts_planB_allonline/Documentation_GW_field_course_2020/_bookdown_files/data/Experiments_aquifer_properties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB8BE28-E7E3-D54D-9C30-C5EC407EB1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD67E79-E2D0-FA43-B19A-0331A65CA5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14920" yWindow="460" windowWidth="13600" windowHeight="16480" xr2:uid="{747E31EA-6369-4F45-B488-E14CE0396463}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
